--- a/data/georgia_census/samegrelo/abasha/age_dependency.xlsx
+++ b/data/georgia_census/samegrelo/abasha/age_dependency.xlsx
@@ -1006,13 +1006,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8605663-2C7E-418A-8A08-351A2C487F96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9981CFB3-9552-4FD6-9C96-CF10EAE66049}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{918AF694-5446-4986-85F8-832F31E3DFFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585123E7-A0BE-4E88-84A5-7A807BB4C6DC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A86B1E-A862-48AE-AED0-4514FA3020A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53C2C3E-B8E8-4A90-AC0A-CE60EFD24693}"/>
 </file>